--- a/allStachiwTablesCh15.xlsx
+++ b/allStachiwTablesCh15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycodes\acrylic_annealing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7E4801-2E9D-4700-8024-0745B352010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30DCCA-D7FE-4FCC-9AD1-A794180C7A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B20B3764-8CD4-4BA6-99B4-B74FE6D66581}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B20B3764-8CD4-4BA6-99B4-B74FE6D66581}"/>
   </bookViews>
   <sheets>
     <sheet name="StachiwTable15_1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>NORMALIZING SCHEDULE FOR ACRYLIC CASTINGS</t>
   </si>
@@ -203,6 +203,45 @@
   </si>
   <si>
     <t>Maximum oven heating rate °F/hr (°C/hr)</t>
+  </si>
+  <si>
+    <t>&gt; 12.000 to 14.000, incl. (&gt; 305 to 356, incl.)</t>
+  </si>
+  <si>
+    <t>&gt; 10.000 to 12.000, incl. (&gt; 254 to 305, incl.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 6.000 to 8.000, inlc. (&gt; 152 to 203, incl.)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 8.000 to 10.000, incl. (&gt; 203 to 254, incl.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 4.000 to 6.000, incl. (&gt; 100 to 152, incl.) </t>
+  </si>
+  <si>
+    <t>≥2.000 (50)</t>
+  </si>
+  <si>
+    <t>≥1.750 (44)</t>
+  </si>
+  <si>
+    <t>≥2.500 (64)</t>
+  </si>
+  <si>
+    <t>≥3.250 (82)</t>
+  </si>
+  <si>
+    <t>≥3.500 (89)</t>
+  </si>
+  <si>
+    <t>≥3.750 (92)</t>
+  </si>
+  <si>
+    <t>50 (29)</t>
+  </si>
+  <si>
+    <t>10 (6)</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47D023-E333-466B-B6FD-5C4E9AA52229}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3240,16 +3279,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71B157-E12E-4234-9D2A-DEDEE7825068}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="39.21875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
@@ -3257,43 +3297,260 @@
     <col min="9" max="21" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/allStachiwTablesCh15.xlsx
+++ b/allStachiwTablesCh15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycodes\acrylic_annealing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30DCCA-D7FE-4FCC-9AD1-A794180C7A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3C467-3885-45EC-8B72-DB92C587535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B20B3764-8CD4-4BA6-99B4-B74FE6D66581}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t xml:space="preserve"> 195°F (min) (90°C)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 185 (min) (85°C)</t>
-  </si>
-  <si>
     <t>Maximum oven heating rate °F/hr (°C/hr)</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>10 (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 185°F (min) (85°C)</t>
   </si>
 </sst>
 </file>
@@ -3281,17 +3281,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71B157-E12E-4234-9D2A-DEDEE7825068}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.21875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" style="2" customWidth="1"/>
     <col min="9" max="21" width="8.88671875" style="2"/>
@@ -3312,21 +3313,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3411,7 +3412,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>
@@ -3431,7 +3432,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -3459,7 +3460,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -3475,15 +3476,15 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>43</v>
@@ -3491,13 +3492,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3505,52 +3506,64 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C23" s="2">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/allStachiwTablesCh15.xlsx
+++ b/allStachiwTablesCh15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycodes\acrylic_annealing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3C467-3885-45EC-8B72-DB92C587535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90A7A2-E6D2-4328-AA46-4B3A5F04C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B20B3764-8CD4-4BA6-99B4-B74FE6D66581}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B20B3764-8CD4-4BA6-99B4-B74FE6D66581}"/>
   </bookViews>
   <sheets>
     <sheet name="StachiwTable15_1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>NORMALIZING SCHEDULE FOR ACRYLIC CASTINGS</t>
   </si>
@@ -181,12 +181,6 @@
     <t>5 (3)</t>
   </si>
   <si>
-    <t xml:space="preserve">2(1) </t>
-  </si>
-  <si>
-    <t>Hold times, hr, for acrylic placed in a forced-circulation air oven maintained at the set temperature within ± 5°F (2.8°C)</t>
-  </si>
-  <si>
     <t>Table 15.3 Part B Typical heating times for elevated temperature annealing of acrylic windows</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 185°F (min) (85°C)</t>
+  </si>
+  <si>
+    <t>Thinckness, in (mm)</t>
+  </si>
+  <si>
+    <t>Hold times*, hr, for acrylic placed in a forced-circulation air oven maintained at the set temperature within ± 5°F (2.8°C)</t>
   </si>
 </sst>
 </file>
@@ -732,14 +732,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2838,18 +2847,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BAB7F9-E7A1-4248-A2C1-E152B61B7BD5}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2874,16 +2883,16 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2894,16 +2903,16 @@
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>2.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>5.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2914,16 +2923,16 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>11</v>
       </c>
     </row>
@@ -2934,16 +2943,16 @@
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>4.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>6.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>11.5</v>
       </c>
     </row>
@@ -2954,16 +2963,16 @@
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>12</v>
       </c>
     </row>
@@ -2974,16 +2983,16 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>5.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>7.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>12.5</v>
       </c>
     </row>
@@ -2994,16 +3003,16 @@
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>13</v>
       </c>
     </row>
@@ -3014,16 +3023,16 @@
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3034,16 +3043,16 @@
       <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3054,16 +3063,16 @@
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3074,16 +3083,16 @@
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>14</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3094,16 +3103,16 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>15</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3114,16 +3123,16 @@
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>16</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3134,16 +3143,16 @@
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>17</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>18</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>22</v>
       </c>
     </row>
@@ -3154,16 +3163,16 @@
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>28</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>31</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>34</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3174,16 +3183,16 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>40</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>45</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>58</v>
       </c>
     </row>
@@ -3192,19 +3201,19 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3">
         <v>76</v>
-      </c>
-      <c r="D20" s="2">
-        <v>87</v>
-      </c>
-      <c r="E20" s="2">
-        <v>98</v>
-      </c>
-      <c r="F20" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3214,16 +3223,16 @@
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>64</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>73</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>82</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>94</v>
       </c>
     </row>
@@ -3232,18 +3241,18 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
         <v>76</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>87</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>98</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>112</v>
       </c>
     </row>
@@ -3254,16 +3263,16 @@
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>88</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>101</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>114</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>130</v>
       </c>
     </row>
@@ -3279,20 +3288,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71B157-E12E-4234-9D2A-DEDEE7825068}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" style="2" customWidth="1"/>
     <col min="9" max="21" width="8.88671875" style="2"/>
@@ -3304,49 +3313,53 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>72</v>
+      <c r="F4" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>2.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>13</v>
       </c>
     </row>
@@ -3354,19 +3367,19 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3374,19 +3387,19 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>7.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>13</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3394,59 +3407,59 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>12</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>18</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3454,119 +3467,271 @@
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C15" s="3">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C17" s="3">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C18" s="3">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C19" s="3">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3">
+        <v>81</v>
+      </c>
+      <c r="F20" s="3">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="C21" s="3">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3">
+        <v>97</v>
+      </c>
+      <c r="F21" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3">
+        <v>114</v>
+      </c>
+      <c r="F22" s="3">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2">
-        <v>103</v>
-      </c>
-      <c r="E23" s="2">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2">
-        <v>124</v>
+      <c r="C23" s="3">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3">
+        <v>118</v>
+      </c>
+      <c r="E23" s="3">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>